--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2903497.683870756</v>
+        <v>2898868.554950847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7559111.754011175</v>
+        <v>7556751.836449499</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>274.9853982375258</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.3670033956604</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530766</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>214.2042218265638</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159213</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>342.1583329957532</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.8470872577949</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023834097</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.54550680794773</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>57.74966225563509</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.017543089518</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>22.05469620712799</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>76.74086563202131</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384507</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>154.0558398218098</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173255</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>199.0385336586569</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313971</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453493</v>
+        <v>20.92391191189587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443505</v>
+        <v>48.81858568179599</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046337</v>
+        <v>67.32610467782432</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074578</v>
+        <v>52.47323292810673</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258551</v>
+        <v>38.04694813994645</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546462</v>
+        <v>37.97339019282556</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523189</v>
+        <v>39.72284161259283</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762402</v>
+        <v>50.54167953498497</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419606</v>
+        <v>37.89393170155701</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536799</v>
+        <v>15.73364728272894</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982391</v>
+        <v>6.632145647184856</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535123</v>
+        <v>84.75808915271217</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868843</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682828</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803922374</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.25865461509</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866448</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>37.99245879234287</v>
+        <v>40.48690626822784</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812806</v>
+        <v>68.38158003812796</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460417</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415629</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443879</v>
+        <v>72.0362272844387</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627842</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915753</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689249</v>
+        <v>59.2858359689248</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131693</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788898</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906091</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351683</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090441</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432162</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.852712257152</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246147</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707215013</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.25865461509</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866448</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812796</v>
       </c>
       <c r="T44" t="n">
-        <v>106.3740388304716</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460417</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415629</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.0362272844387</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627842</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915753</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.2858359689248</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131693</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788898</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906091</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351683</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090441</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432162</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.852712257152</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246147</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>727.6712817443354</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>727.6712817443354</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>342.2301529610031</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>342.2301529610031</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>329.3761185313849</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>320.2537670597922</v>
+        <v>364.5813763321317</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>46.56170315639696</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>405.5440591838588</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023876</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.266048587713</v>
+        <v>898.8643509023876</v>
       </c>
       <c r="N2" t="n">
-        <v>1591.503874579471</v>
+        <v>1400.031133897839</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579471</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710993</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137463</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078514</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637931</v>
+        <v>1596.909223717105</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072529</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.670316776048</v>
+        <v>999.0496848552219</v>
       </c>
       <c r="W2" t="n">
-        <v>727.6712817443354</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>727.6712817443354</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>727.6712817443354</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>657.7430775364724</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>507.0888470965646</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>376.9998797180449</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>240.5533888289326</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>116.1215827120644</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512724</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703884</v>
+        <v>360.2374719608488</v>
       </c>
       <c r="L3" t="n">
-        <v>526.056824435352</v>
+        <v>360.2374719608488</v>
       </c>
       <c r="M3" t="n">
-        <v>968.0301839896725</v>
+        <v>861.4042549563</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896725</v>
+        <v>883.7630516643766</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580654</v>
+        <v>1384.929834659828</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297051</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649875</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848783</v>
+        <v>1689.084762927958</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527425</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V3" t="n">
-        <v>1578.642251527425</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110953</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609651</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364724</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>849.4677703969139</v>
+        <v>241.0817140065312</v>
       </c>
       <c r="C4" t="n">
-        <v>679.2626524629031</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="D4" t="n">
-        <v>523.6295393654178</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="E4" t="n">
-        <v>368.0707272246203</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7447924375933</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="X4" t="n">
-        <v>849.4677703969139</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="Y4" t="n">
-        <v>849.4677703969139</v>
+        <v>296.8865154828869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2124.536926851942</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="C5" t="n">
-        <v>1731.361425354872</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.92029657154</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="E5" t="n">
-        <v>943.3367716880844</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="F5" t="n">
-        <v>526.4423332180621</v>
+        <v>538.3551089437453</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>125.1923534317485</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>632.851547167902</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1158.674436563758</v>
+        <v>1051.843641766317</v>
       </c>
       <c r="N5" t="n">
-        <v>1684.497325959613</v>
+        <v>1051.843641766317</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851942</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851942</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851942</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851942</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851942</v>
+        <v>1596.909223717105</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.536926851942</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.536926851942</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="W5" t="n">
-        <v>2124.536926851942</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="X5" t="n">
-        <v>2124.536926851942</v>
+        <v>951.7038890847604</v>
       </c>
       <c r="Y5" t="n">
-        <v>2124.536926851942</v>
+        <v>951.7038890847604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163367</v>
+        <v>736.0639889622241</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764289</v>
+        <v>585.4097585223163</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979092</v>
+        <v>455.3207911437967</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087969</v>
+        <v>318.8743002546844</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192871</v>
+        <v>194.4424941378162</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703884</v>
+        <v>74.38267620968064</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703884</v>
+        <v>74.38267620968064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703884</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703884</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L6" t="n">
-        <v>150.7494967528519</v>
+        <v>521.4159459447621</v>
       </c>
       <c r="M6" t="n">
-        <v>676.5723861487074</v>
+        <v>1022.582728940213</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544563</v>
+        <v>1523.749511935664</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135544</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649875</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848783</v>
+        <v>1689.084762927958</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527425</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898492</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031779</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817907</v>
+        <v>1067.174540327678</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.363709457298</v>
+        <v>887.8603234031855</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>442.2393640676496</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="C7" t="n">
-        <v>442.2393640676496</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="D7" t="n">
-        <v>442.2393640676496</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="E7" t="n">
-        <v>286.6805519268521</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="F7" t="n">
-        <v>228.3475597494429</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="G7" t="n">
-        <v>228.3475597494429</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="H7" t="n">
-        <v>72.8690087109369</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I7" t="n">
-        <v>72.8690087109369</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>442.2393640676496</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>442.2393640676496</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>442.2393640676496</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>442.2393640676496</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1742.373856308063</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1742.373856308063</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.864565387462</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2138.864565387462</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2138.864565387462</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2138.864565387462</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1742.373856308063</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>763.5519739517948</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>593.346856017784</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>437.7137429202988</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>282.1549307795013</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>124.8289959924742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>124.8289959924742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>124.8289959924742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1754.28502983002</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1456.050209620139</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1165.549762123995</v>
+        <v>731.4357765463909</v>
       </c>
       <c r="E11" t="n">
-        <v>857.9069185277276</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>535.9531613448937</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>217.7310871200852</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2626.405335146509</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2350.346981401985</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2055.83505762223</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1754.28502983002</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082783</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979814</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443723</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445336</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311673</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5206,19 +5206,19 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592136</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.67307041405</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.438250204169</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1009.937802708025</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>702.2949591117579</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>380.341201928924</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2977.396464052381</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2500.289086410224</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.777162630469</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.227134838259</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5413,10 +5413,10 @@
         <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443718</v>
@@ -5425,7 +5425,7 @@
         <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5476,10 +5476,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5762,7 +5762,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5926,10 +5926,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6221,34 +6221,34 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662622</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6297,19 +6297,19 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
@@ -6370,31 +6370,31 @@
         <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662622</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879682</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746021</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904109</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6646,25 +6646,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267673</v>
+        <v>87.68547930209954</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1165.756364896309</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1711.757264940889</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2239.568548578352</v>
       </c>
       <c r="O32" t="n">
-        <v>2687.837340252621</v>
+        <v>2794.477684958978</v>
       </c>
       <c r="P32" t="n">
-        <v>3144.515340024529</v>
+        <v>3142.6651770905</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748666</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304548</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435852</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590211</v>
+        <v>341.68725655548</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229143</v>
+        <v>288.6839909715338</v>
       </c>
       <c r="D34" t="n">
-        <v>284.787882623333</v>
+        <v>250.2527302241131</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804394</v>
+        <v>211.8957704333802</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913163</v>
+        <v>171.7716879964178</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886658</v>
+        <v>120.7194864459279</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806366</v>
+        <v>82.44278775748647</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259936</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763212</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>610.2030886905065</v>
+        <v>427.3824312166689</v>
       </c>
       <c r="M34" t="n">
-        <v>904.9851746691562</v>
+        <v>728.5435450432312</v>
       </c>
       <c r="N34" t="n">
-        <v>1146.58170220396</v>
+        <v>911.7331790744404</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245668</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022246</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.756514501952</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034566</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.38814414483</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279026</v>
+        <v>798.6106513157188</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569841</v>
+        <v>632.482101596961</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378711</v>
+        <v>515.6036317300087</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524184</v>
+        <v>409.6934228967166</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.546437901693</v>
+        <v>1340.175609875976</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.812188394757</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>1040.812311601558</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>735.6700387082356</v>
+        <v>738.1896826232698</v>
       </c>
       <c r="F41" t="n">
-        <v>416.2168522283465</v>
+        <v>418.7364961433809</v>
       </c>
       <c r="G41" t="n">
-        <v>100.4953487064821</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4953487064821</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>3036.88408213696</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2792.218524830612</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2518.660741789033</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2226.649388712222</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1927.599931622957</v>
+        <v>1643.22910359724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344855</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906081</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832561</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325919</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356982</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.809600125277</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690433</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743711</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529086</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.198973302238</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160317</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.891465940008</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237697</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.35960103309</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557604</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288769</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356535</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1586.170216899327</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.43596739239</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D44" t="n">
-        <v>1002.436090599191</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>697.2938177058684</v>
+        <v>697.2938177058679</v>
       </c>
       <c r="F44" t="n">
-        <v>377.8406312259793</v>
+        <v>377.840631225979</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.884082136959</v>
       </c>
       <c r="T44" t="n">
-        <v>2998.507861134593</v>
+        <v>2910.824731686509</v>
       </c>
       <c r="U44" t="n">
-        <v>2998.507861134593</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2753.842303828245</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2480.284520786666</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.273167709856</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.223710620591</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,22 +7722,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1699486069232</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344855</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906081</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832561</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325919</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356982</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.809600125277</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690431</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676792</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M46" t="n">
-        <v>846.608328730802</v>
+        <v>846.6083287308022</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940008</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237697</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.35960103309</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557604</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288769</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356535</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350478</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107127</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>175.6213458749136</v>
+        <v>655.3475650705631</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,19 +8058,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>538.824858972868</v>
+        <v>598.6161957820908</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>107.956755993638</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216679</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>240.8528966947071</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107127</v>
+        <v>164.2633295905311</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507695</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>199.412627882992</v>
+        <v>138.6093284369041</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622973</v>
+        <v>598.6161957820908</v>
       </c>
       <c r="N6" t="n">
-        <v>616.506344567152</v>
+        <v>591.6011865869456</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216679</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>616.3484143223238</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238545</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,13 +8769,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>280.5807329993939</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,13 +9954,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,16 +10425,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,19 +11376,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>278.2539578070002</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>72.79510563304794</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385697</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>45.65593307054336</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213446</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>2.494447475885076</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531169</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>40.48690626822784</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.42471811547399</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>656001.4019905166</v>
+        <v>654798.306762996</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>656001.4019905166</v>
+        <v>654798.306762996</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658913.2505049217</v>
+        <v>658913.2505049215</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627835.9890916371</v>
+        <v>627835.989091637</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627835.9890916371</v>
+        <v>627835.989091637</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630348.4400059916</v>
+        <v>630348.4400059917</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630348.4400059917</v>
+        <v>630348.4400059916</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360842</v>
+        <v>649195.8411360844</v>
       </c>
       <c r="C2" t="n">
-        <v>649195.8411360846</v>
+        <v>649195.8411360845</v>
       </c>
       <c r="D2" t="n">
         <v>649195.8411360842</v>
       </c>
       <c r="E2" t="n">
-        <v>610114.0416596582</v>
+        <v>610114.0416596584</v>
       </c>
       <c r="F2" t="n">
-        <v>610114.0416596584</v>
+        <v>610114.0416596583</v>
       </c>
       <c r="G2" t="n">
+        <v>649195.8411360857</v>
+      </c>
+      <c r="H2" t="n">
+        <v>649195.8411360856</v>
+      </c>
+      <c r="I2" t="n">
+        <v>649195.8411360858</v>
+      </c>
+      <c r="J2" t="n">
+        <v>649195.841136085</v>
+      </c>
+      <c r="K2" t="n">
+        <v>649195.8411360852</v>
+      </c>
+      <c r="L2" t="n">
         <v>649195.8411360859</v>
       </c>
-      <c r="H2" t="n">
-        <v>649195.8411360858</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>649195.8411360856</v>
+      </c>
+      <c r="N2" t="n">
         <v>649195.8411360857</v>
       </c>
-      <c r="J2" t="n">
-        <v>649195.8411360851</v>
-      </c>
-      <c r="K2" t="n">
-        <v>649195.8411360851</v>
-      </c>
-      <c r="L2" t="n">
-        <v>649195.8411360837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>649195.8411360858</v>
-      </c>
-      <c r="N2" t="n">
-        <v>649195.8411360858</v>
-      </c>
       <c r="O2" t="n">
-        <v>612774.2838042682</v>
+        <v>612774.2838042686</v>
       </c>
       <c r="P2" t="n">
         <v>612774.2838042682</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343508</v>
+        <v>169649.0058765501</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602647</v>
+        <v>26460.41160941801</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670107</v>
+        <v>46725.80335481232</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015684</v>
+        <v>18983.55983015691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614852</v>
+        <v>218972.6240101877</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614852</v>
+        <v>218972.6240101877</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="F4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839468</v>
@@ -26436,16 +26436,16 @@
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483298</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936687</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,7 +26454,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>150530.8792394562</v>
+        <v>150530.8792394563</v>
       </c>
       <c r="P4" t="n">
         <v>150530.8792394562</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26494,10 +26494,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446768</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191816.4377520987</v>
+        <v>196167.8835663937</v>
       </c>
       <c r="C6" t="n">
-        <v>369811.7348864499</v>
+        <v>365816.8894429439</v>
       </c>
       <c r="D6" t="n">
-        <v>360756.3274149714</v>
+        <v>353020.0381915799</v>
       </c>
       <c r="E6" t="n">
-        <v>275692.557672572</v>
+        <v>275583.9971184712</v>
       </c>
       <c r="F6" t="n">
-        <v>406145.4888102845</v>
+        <v>406036.9282561832</v>
       </c>
       <c r="G6" t="n">
-        <v>388470.5319636052</v>
+        <v>388470.531963605</v>
       </c>
       <c r="H6" t="n">
+        <v>417565.4878366191</v>
+      </c>
+      <c r="I6" t="n">
         <v>417565.4878366194</v>
       </c>
-      <c r="I6" t="n">
-        <v>417565.4878366193</v>
-      </c>
       <c r="J6" t="n">
-        <v>189479.8444868691</v>
+        <v>195996.1296414421</v>
       </c>
       <c r="K6" t="n">
         <v>411325.7194338358</v>
       </c>
       <c r="L6" t="n">
-        <v>372431.3725012463</v>
+        <v>368382.5352907762</v>
       </c>
       <c r="M6" t="n">
-        <v>374834.2109022508</v>
+        <v>373782.5158910626</v>
       </c>
       <c r="N6" t="n">
-        <v>417565.4878366194</v>
+        <v>417565.4878366192</v>
       </c>
       <c r="O6" t="n">
-        <v>387939.4369521044</v>
+        <v>387838.2659595163</v>
       </c>
       <c r="P6" t="n">
-        <v>406922.9967822613</v>
+        <v>406821.8257896729</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129854</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129854</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880685</v>
+        <v>831.8776843078621</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304857</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087634</v>
+        <v>58.4072541935154</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165949</v>
+        <v>14.33013548902044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769605</v>
+        <v>23.72944978769614</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129854</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630966</v>
+        <v>85.18305253651613</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559195</v>
+        <v>646.8007142757129</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455245</v>
+        <v>129.688382025731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304857</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129854</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630966</v>
+        <v>85.18305253651613</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,7 +27382,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>45.85682169164846</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.922041285735</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354654</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.61185158148223</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427961</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>138.2142282199861</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>66.87279496112365</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713793</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051323</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>15.34787464025979</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,22 +27780,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>98.00301318352169</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393023</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,16 +27853,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.1405060626194</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>55.02261547727157</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2979821082778</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155848</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,13 +29226,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668858</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901209</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901209</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513748</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.75804948161272</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539249</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="N34" t="n">
-        <v>58.99686212484283</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>13.98970481639779</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155846</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
         <v>130.3599693155844</v>
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>28.01250026485255</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561692835</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="O43" t="n">
-        <v>36.24905561693126</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.2490556169285</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561693103</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023197</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.124623492701656</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129854</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.50285453712949</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>446.4377369235561</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>22.58464313947134</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>87.60472696421536</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129854</v>
+        <v>14.53827799280387</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129854</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>109.3522810260738</v>
+        <v>48.54898157998584</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129854</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129854</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>463.1002445918322</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696878</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>188.193610950082</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>22.71185353989334</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35817,13 +35817,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P16" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.7547461184303</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,13 +36522,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816474</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907917</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907917</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195857</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,13 +37081,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997111</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.4707364926718</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176581</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407349</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759449</v>
+        <v>281.8153286485839</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
-        <v>244.0368964998016</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>135.076740954356</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144769271</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37944,19 +37944,19 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>284.640150923024</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>200.5973051540101</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038446</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682099</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>188.193610950082</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807291</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38181,19 +38181,19 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>284.640150923024</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918873</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548892</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038446</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
